--- a/PythonApplication1/Wholesale PriceSheet Template.xlsx
+++ b/PythonApplication1/Wholesale PriceSheet Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24923"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5698C7A1-30B0-4B2D-9474-9F25AFC8D96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{001A98AD-2138-4FC8-8D2F-6DC5542787CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AB$24</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>3186 Strasburg Road</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Bark Blend</t>
   </si>
   <si>
-    <t>Natural Products</t>
-  </si>
-  <si>
     <t>Nature's Blend</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>(Black &amp; Brown)</t>
   </si>
   <si>
-    <t>Dyed Products</t>
-  </si>
-  <si>
     <t>Dyed Mulch</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Clean Wood Chips</t>
   </si>
   <si>
-    <t>Play Area &amp; Ground Cover</t>
-  </si>
-  <si>
     <t>Wood Chips</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Rain Garden Mix</t>
   </si>
   <si>
-    <t>Soil Amendments</t>
-  </si>
-  <si>
     <t>Screened Blend</t>
   </si>
   <si>
@@ -149,9 +137,6 @@
   </si>
   <si>
     <t>Fill Dirt</t>
-  </si>
-  <si>
-    <t>Soil</t>
   </si>
   <si>
     <t>Topsoil Overs</t>
@@ -161,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +163,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="MingLiu"/>
     </font>
     <font>
       <sz val="36"/>
@@ -203,47 +182,58 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="25"/>
       <color theme="1"/>
-      <name val="MingLiu"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="25"/>
       <color theme="1"/>
-      <name val="MingLiu"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="MingLiu"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="MingLiu"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="MingLiu"/>
-    </font>
-    <font>
-      <sz val="23"/>
-      <color theme="1"/>
-      <name val="MingLiu"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="MingLiu"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -803,12 +793,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -829,215 +818,217 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,6 +1045,290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9D1993-F2A9-4EB8-A0A7-AFB63E53F02B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="0"/>
+          <a:ext cx="2952750" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-4762</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>271462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>623887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F64B66C-6EC9-490B-9B9A-E00D4670A088}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3D9D1993-F2A9-4EB8-A0A7-AFB63E53F02B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16230693">
+          <a:off x="-523875" y="2876550"/>
+          <a:ext cx="2257425" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165EBD83-8AF2-450A-9395-641E6978F6AD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8F64B66C-6EC9-490B-9B9A-E00D4670A088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16237776">
+          <a:off x="-504825" y="5524500"/>
+          <a:ext cx="2190750" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C690F046-47B6-4CA6-9B7B-5B5951ADC443}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{165EBD83-8AF2-450A-9395-641E6978F6AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-800100" y="8277225"/>
+          <a:ext cx="2762250" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A427B53-4DA8-4D54-B574-4F506FC1BCDA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C690F046-47B6-4CA6-9B7B-5B5951ADC443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16227723">
+          <a:off x="-1000125" y="12087225"/>
+          <a:ext cx="3143250" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E847C9-1E82-4EA1-9061-941C9D58D5AB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6A427B53-4DA8-4D54-B574-4F506FC1BCDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16141739">
+          <a:off x="-171450" y="17059275"/>
+          <a:ext cx="1543050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1356,904 +1631,901 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="27" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="45">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:29" ht="45">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="19" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
+      <c r="AB1" s="12"/>
     </row>
-    <row r="2" spans="1:28" ht="44.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:29" ht="44.25">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
     </row>
-    <row r="3" spans="1:28" ht="37.5" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:29" ht="37.5" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="15" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
     </row>
-    <row r="4" spans="1:28" ht="37.5" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:29" ht="37.5" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="28">
+      <c r="I4" s="48">
         <v>2</v>
       </c>
-      <c r="I4" s="28">
+      <c r="J4" s="48">
         <v>3</v>
       </c>
-      <c r="J4" s="28">
+      <c r="K4" s="48">
         <v>4</v>
       </c>
-      <c r="K4" s="28">
+      <c r="L4" s="48">
         <v>5</v>
       </c>
-      <c r="L4" s="28">
+      <c r="M4" s="48">
         <v>6</v>
       </c>
-      <c r="M4" s="28">
+      <c r="N4" s="48">
         <v>7</v>
       </c>
-      <c r="N4" s="28">
+      <c r="O4" s="48">
         <v>8</v>
       </c>
-      <c r="O4" s="28">
+      <c r="P4" s="48">
         <v>9</v>
       </c>
-      <c r="P4" s="28">
+      <c r="Q4" s="48">
         <v>10</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="R4" s="48">
         <v>11</v>
       </c>
-      <c r="R4" s="28">
+      <c r="S4" s="48">
         <v>12</v>
       </c>
-      <c r="S4" s="28">
+      <c r="T4" s="48">
         <v>13</v>
       </c>
-      <c r="T4" s="28">
+      <c r="U4" s="48">
         <v>14</v>
       </c>
-      <c r="U4" s="28">
+      <c r="V4" s="48">
         <v>15</v>
       </c>
-      <c r="V4" s="28">
+      <c r="W4" s="48">
         <v>16</v>
       </c>
-      <c r="W4" s="28">
+      <c r="X4" s="48">
         <v>20</v>
       </c>
-      <c r="X4" s="28">
+      <c r="Y4" s="48">
         <v>25</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Z4" s="48">
         <v>30</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="AA4" s="48">
         <v>40</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AB4" s="48">
         <v>50</v>
       </c>
-      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:29" ht="75" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="49" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="56"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="18"/>
     </row>
-    <row r="6" spans="1:28" ht="75" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:29" ht="75" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="44" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="20"/>
     </row>
-    <row r="7" spans="1:28" ht="75" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:29" ht="75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="22"/>
+    </row>
+    <row r="8" spans="1:29" ht="56.25" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="45" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="87"/>
     </row>
-    <row r="8" spans="1:28" ht="75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="23" t="s">
+    <row r="9" spans="1:29" ht="37.5" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="24"/>
     </row>
-    <row r="9" spans="1:28" ht="37.5" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="40" t="s">
+    <row r="10" spans="1:29" ht="56.25" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="89"/>
     </row>
-    <row r="10" spans="1:28" ht="75" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:29" ht="37.5" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="67"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="26"/>
     </row>
-    <row r="11" spans="1:28" ht="37.5" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="37" t="s">
+    <row r="12" spans="1:29" ht="75" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="38" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" spans="1:29" ht="75" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="69"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="22"/>
     </row>
-    <row r="12" spans="1:28" ht="75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="35" t="s">
+    <row r="14" spans="1:29" ht="75" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="42" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="71"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="20"/>
     </row>
-    <row r="13" spans="1:28" ht="75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="36" t="s">
+    <row r="15" spans="1:29" ht="75" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="45" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="22"/>
     </row>
-    <row r="14" spans="1:28" ht="75" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="16" spans="1:29" ht="75" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="20"/>
+    </row>
+    <row r="17" spans="1:28" ht="75" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="44" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="31"/>
     </row>
-    <row r="15" spans="1:28" ht="75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="24" t="s">
+    <row r="18" spans="1:28" ht="37.5" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="60"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="78">
+        <v>2</v>
+      </c>
+      <c r="J18" s="79">
+        <v>3</v>
+      </c>
+      <c r="K18" s="78">
+        <v>4</v>
+      </c>
+      <c r="L18" s="78">
+        <v>5</v>
+      </c>
+      <c r="M18" s="78">
+        <v>6</v>
+      </c>
+      <c r="N18" s="78">
+        <v>7</v>
+      </c>
+      <c r="O18" s="80">
+        <v>8</v>
+      </c>
+      <c r="P18" s="81">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="78">
+        <v>10</v>
+      </c>
+      <c r="R18" s="78">
+        <v>11</v>
+      </c>
+      <c r="S18" s="78">
+        <v>12</v>
+      </c>
+      <c r="T18" s="78">
+        <v>13</v>
+      </c>
+      <c r="U18" s="78">
+        <v>14</v>
+      </c>
+      <c r="V18" s="78">
+        <v>15</v>
+      </c>
+      <c r="W18" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="82">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
+    <row r="19" spans="1:28" ht="75" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="7"/>
     </row>
-    <row r="17" spans="1:27" ht="75" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="74"/>
+    <row r="20" spans="1:28" ht="75" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="7"/>
     </row>
-    <row r="18" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="29">
-        <v>2</v>
-      </c>
-      <c r="I18" s="30">
-        <v>3</v>
-      </c>
-      <c r="J18" s="29">
-        <v>4</v>
-      </c>
-      <c r="K18" s="29">
-        <v>5</v>
-      </c>
-      <c r="L18" s="29">
-        <v>6</v>
-      </c>
-      <c r="M18" s="29">
-        <v>7</v>
-      </c>
-      <c r="N18" s="31">
-        <v>8</v>
-      </c>
-      <c r="O18" s="32">
-        <v>9</v>
-      </c>
-      <c r="P18" s="29">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>11</v>
-      </c>
-      <c r="R18" s="29">
-        <v>12</v>
-      </c>
-      <c r="S18" s="29">
-        <v>13</v>
-      </c>
-      <c r="T18" s="29">
-        <v>14</v>
-      </c>
-      <c r="U18" s="29">
-        <v>15</v>
-      </c>
-      <c r="V18" s="29" t="s">
+    <row r="21" spans="1:28" ht="75" customHeight="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="W18" s="33">
-        <v>20</v>
-      </c>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="8"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="7"/>
     </row>
-    <row r="19" spans="1:27" ht="75" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="54" t="s">
+    <row r="22" spans="1:28" ht="75" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="55" t="s">
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="8"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="7"/>
     </row>
-    <row r="20" spans="1:27" ht="75" customHeight="1">
-      <c r="A20" s="7" t="s">
+    <row r="23" spans="1:28" ht="75" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" ht="75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="51" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="8"/>
-    </row>
-    <row r="21" spans="1:27" ht="75" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="8"/>
-    </row>
-    <row r="22" spans="1:27" ht="75" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="8"/>
-    </row>
-    <row r="23" spans="1:27" ht="75" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="8"/>
-    </row>
-    <row r="24" spans="1:27" ht="75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="12"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>